--- a/src/fordMalalane/cars.xlsx
+++ b/src/fordMalalane/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -119,7 +119,7 @@
     <t>46 000 Km</t>
   </si>
   <si>
-    <t>R 999 999</t>
+    <t>R 199 900</t>
   </si>
   <si>
     <t>Volkswagen Polo Vivo 1.4 Trendline 5-dr</t>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>140 000 Km</t>
-  </si>
-  <si>
-    <t>R 199 900</t>
   </si>
   <si>
     <t>Ford Ranger 2.0D Bi-Turbo Raptor 4x4 Auto Double-Cab</t>
@@ -463,18 +460,18 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="n">
         <v>9799813.0</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -483,21 +480,21 @@
         <v>2022.0</v>
       </c>
       <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
         <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="n">
         <v>9699486.0</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -506,21 +503,21 @@
         <v>2024.0</v>
       </c>
       <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n">
         <v>9601474.0</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -529,10 +526,10 @@
         <v>2023.0</v>
       </c>
       <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
         <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/src/fordMalalane/cars.xlsx
+++ b/src/fordMalalane/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -122,18 +122,6 @@
     <t>R 199 900</t>
   </si>
   <si>
-    <t>Volkswagen Polo Vivo 1.4 Trendline 5-dr</t>
-  </si>
-  <si>
-    <t>US1988</t>
-  </si>
-  <si>
-    <t>33 000 Km</t>
-  </si>
-  <si>
-    <t>R 209 900</t>
-  </si>
-  <si>
     <t>Ford Kuga 2.0 TDCi Trend AWD Auto</t>
   </si>
   <si>
@@ -141,30 +129,6 @@
   </si>
   <si>
     <t>140 000 Km</t>
-  </si>
-  <si>
-    <t>Ford Ranger 2.0D Bi-Turbo Raptor 4x4 Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>US1980</t>
-  </si>
-  <si>
-    <t>99 500 Km</t>
-  </si>
-  <si>
-    <t>R 689 900</t>
-  </si>
-  <si>
-    <t>Ford Puma 1.0T Ecoboost Titanium Auto</t>
-  </si>
-  <si>
-    <t>US1941</t>
-  </si>
-  <si>
-    <t>4 000 Km</t>
-  </si>
-  <si>
-    <t>R 389 900</t>
   </si>
   <si>
     <t>Ford Ranger 2.0D Double Cab</t>
@@ -227,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -422,7 +386,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>9839118.0</v>
+        <v>9836603.0</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -431,105 +395,36 @@
         <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>2023.0</v>
+        <v>2015.0</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9601474.0</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="n">
-        <v>9836603.0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9799813.0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="n">
-        <v>9699486.0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2024.0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9601474.0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/src/fordMalalane/cars.xlsx
+++ b/src/fordMalalane/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -35,43 +35,109 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Nissan Magnite 1.0T Visia</t>
-  </si>
-  <si>
-    <t>UA7372</t>
+    <t>Honda HR-V 1.5 Comfort Auto</t>
+  </si>
+  <si>
+    <t>US2023</t>
   </si>
   <si>
     <t>Used</t>
   </si>
   <si>
-    <t>21 000 Km</t>
+    <t>83 500 Km</t>
+  </si>
+  <si>
+    <t>R 229 900</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo Vivo 1.6 Comfortline Auto 5-dr</t>
+  </si>
+  <si>
+    <t>UA7646</t>
+  </si>
+  <si>
+    <t>55 000 Km</t>
+  </si>
+  <si>
+    <t>R 239 900</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo Vivo 1.4 Trendline 5-dr</t>
+  </si>
+  <si>
+    <t>US2009</t>
+  </si>
+  <si>
+    <t>38 000 Km</t>
+  </si>
+  <si>
+    <t>US2010</t>
+  </si>
+  <si>
+    <t>29 000 Km</t>
   </si>
   <si>
     <t>R 249 900</t>
   </si>
   <si>
-    <t>Toyota Hilux 2.4 GD-6 Raider 4x4 Double-Cab</t>
-  </si>
-  <si>
-    <t>UG5307</t>
-  </si>
-  <si>
-    <t>152 000 Km</t>
-  </si>
-  <si>
-    <t>R 469 900</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz A-Class A 200d Auto</t>
-  </si>
-  <si>
-    <t>UF8836</t>
-  </si>
-  <si>
-    <t>100 000 Km</t>
-  </si>
-  <si>
-    <t>R 429 900</t>
+    <t>Volkswagen Polo Classic 1.6 Life Tiptronic</t>
+  </si>
+  <si>
+    <t>US2008</t>
+  </si>
+  <si>
+    <t>31 000 Km</t>
+  </si>
+  <si>
+    <t>R 299 900</t>
+  </si>
+  <si>
+    <t>US2011</t>
+  </si>
+  <si>
+    <t>46 000 Km</t>
+  </si>
+  <si>
+    <t>R 219 900</t>
+  </si>
+  <si>
+    <t>US2007</t>
+  </si>
+  <si>
+    <t>27 000 Km</t>
+  </si>
+  <si>
+    <t>Suzuki Swift 1.2 GA</t>
+  </si>
+  <si>
+    <t>US2015</t>
+  </si>
+  <si>
+    <t>20 500 Km</t>
+  </si>
+  <si>
+    <t>R 169 900</t>
+  </si>
+  <si>
+    <t>Kia Sportage 2.0 Ignite</t>
+  </si>
+  <si>
+    <t>US2012</t>
+  </si>
+  <si>
+    <t>189 500 Km</t>
+  </si>
+  <si>
+    <t>R 139 900</t>
+  </si>
+  <si>
+    <t>Ford EcoSport 1.5 TiVCT Ambiente Auto</t>
+  </si>
+  <si>
+    <t>US2014</t>
+  </si>
+  <si>
+    <t>58 000 Km</t>
   </si>
   <si>
     <t>BMW 1 Series 118i Sport Line</t>
@@ -92,55 +158,22 @@
     <t>US1984</t>
   </si>
   <si>
-    <t>8 000 Km</t>
+    <t>43 000 Km</t>
   </si>
   <si>
     <t>R 349 900</t>
   </si>
   <si>
-    <t>Ford Kuga 1.6 EcoBoost Trend</t>
-  </si>
-  <si>
-    <t>US1890</t>
-  </si>
-  <si>
-    <t>91 000 Km</t>
-  </si>
-  <si>
-    <t>R 189 900</t>
-  </si>
-  <si>
-    <t>Honda Jazz 1.2 Comfort</t>
-  </si>
-  <si>
-    <t>US1993</t>
-  </si>
-  <si>
-    <t>46 000 Km</t>
+    <t>Ford Kuga 2.0 TDCi Trend AWD Auto</t>
+  </si>
+  <si>
+    <t>US1968</t>
+  </si>
+  <si>
+    <t>140 000 Km</t>
   </si>
   <si>
     <t>R 199 900</t>
-  </si>
-  <si>
-    <t>Ford Kuga 2.0 TDCi Trend AWD Auto</t>
-  </si>
-  <si>
-    <t>US1968</t>
-  </si>
-  <si>
-    <t>140 000 Km</t>
-  </si>
-  <si>
-    <t>Ford Ranger 2.0D Double Cab</t>
-  </si>
-  <si>
-    <t>NS1670</t>
-  </si>
-  <si>
-    <t>15 100 Km</t>
-  </si>
-  <si>
-    <t>R 519 900</t>
   </si>
 </sst>
 </file>
@@ -191,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -225,7 +258,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>9976945.0</v>
+        <v>1.0114868E7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -234,7 +267,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>2024.0</v>
+        <v>2019.0</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -248,7 +281,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>9976902.0</v>
+        <v>1.0114524E7</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -257,7 +290,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>2022.0</v>
+        <v>2020.0</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -271,7 +304,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>9976544.0</v>
+        <v>1.0085448E7</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -280,151 +313,243 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>2020.0</v>
+        <v>2024.0</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0085444E7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="n">
-        <v>9976063.0</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0085429E7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="n">
-        <v>9968262.0</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.0085418E7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9968255.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>9952017.0</v>
+        <v>1.0085408E7</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>2020.0</v>
+        <v>2024.0</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" t="n">
-        <v>9836603.0</v>
+        <v>1.0085224E7</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>2015.0</v>
+        <v>2023.0</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.0085213E7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="n">
-        <v>9601474.0</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="n">
+        <v>1.0084433E7</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9976063.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9968262.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
         <v>2023.0</v>
       </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9836603.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
